--- a/suppxls/Scen_test_storage.xlsx
+++ b/suppxls/Scen_test_storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5EB563-B795-4601-BD21-E9796A76F93E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCED55B9-4E7E-47C6-B444-D1FCD6FDF460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="1155" windowWidth="20040" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4815" yWindow="1410" windowWidth="20040" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="P2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="1" shapeId="0" xr:uid="{242C8DDC-281E-447C-B795-12EF2A033716}">
+    <comment ref="K10" authorId="1" shapeId="0" xr:uid="{242C8DDC-281E-447C-B795-12EF2A033716}">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="1" shapeId="0" xr:uid="{8C55C577-F3A0-4893-B2E5-3A2A6F574E7E}">
+    <comment ref="P10" authorId="1" shapeId="0" xr:uid="{8C55C577-F3A0-4893-B2E5-3A2A6F574E7E}">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="50">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -274,13 +274,31 @@
   </si>
   <si>
     <t>ACT_COST</t>
+  </si>
+  <si>
+    <t>COM_PROJ</t>
+  </si>
+  <si>
+    <t>H2L</t>
+  </si>
+  <si>
+    <t>REG1</t>
+  </si>
+  <si>
+    <t>REG2</t>
+  </si>
+  <si>
+    <t>COM_TAXNET</t>
+  </si>
+  <si>
+    <t>TOTCO2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +356,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -766,48 +790,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="K2" s="10"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
@@ -829,131 +854,206 @@
       <c r="H3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="M3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="N3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="O3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="P3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="Q3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="R3" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>36</v>
       </c>
       <c r="H4">
         <v>2100</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>37</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="N4" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>2025</v>
+      </c>
+      <c r="I5">
+        <v>1000</v>
+      </c>
+      <c r="J5">
+        <v>1000</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7">
+        <v>2020</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <v>2050</v>
+      </c>
+      <c r="H8">
+        <v>0.35</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="L11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="M11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="N11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="O11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="P11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="Q11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="R11" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H12" t="s">
         <v>41</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H13" t="s">
         <v>41</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K13" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/suppxls/Scen_test_storage.xlsx
+++ b/suppxls/Scen_test_storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE2FD00-532A-41F8-97E5-56A186F46958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F54C0E-4AD3-4EB8-806C-948A36756390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30780" yWindow="2850" windowWidth="21600" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS" sheetId="2" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>Increasing flexibility</t>
+  </si>
+  <si>
+    <t>TRAGSL</t>
   </si>
 </sst>
 </file>
@@ -709,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,39 +1101,73 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24">
+        <v>2030</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C30" t="s">
         <v>39</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D30" t="s">
         <v>40</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E30" t="s">
         <v>41</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>38</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C31" t="s">
         <v>32</v>
       </c>
-      <c r="D28">
+      <c r="D31">
         <v>2050</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E31" t="s">
         <v>42</v>
       </c>
     </row>
